--- a/biology/Biologie cellulaire et moléculaire/CXCR3/CXCR3.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/CXCR3/CXCR3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le CXCR3 est un récepteur membranaire avec une affinité pour certaines cytokines. Son gène est le CXCR3 situé sur le chromosome X humain.
@@ -512,11 +524,13 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé dans différents tissus, dont dans les cellules gliales[2] et interviendrait, par ce biais, dans la réorganisation neuronale après lésion[3].
-Il a une affinité pour le MIG et l'IP10 ainsi que pour l'éotaxine, cette dernière agissant comme un inhibiteur de l'IP10[4].
-Son activation semble jouer un rôle dans le développement de la maladie d'Alzheimer, du moins sur un modèle animal de cette dernière[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé dans différents tissus, dont dans les cellules gliales et interviendrait, par ce biais, dans la réorganisation neuronale après lésion.
+Il a une affinité pour le MIG et l'IP10 ainsi que pour l'éotaxine, cette dernière agissant comme un inhibiteur de l'IP10.
+Son activation semble jouer un rôle dans le développement de la maladie d'Alzheimer, du moins sur un modèle animal de cette dernière.
 </t>
         </is>
       </c>
